--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V4 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V4 Full Detailed Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EF5292-B2A1-4421-B1F9-28543CB15287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A662518B-298F-402D-A608-AE2A6487F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,11 +29,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -435,7 +435,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,6 +509,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,52 +558,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1134341</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1104034</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>924751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D32B8BE-8A86-4C5D-856C-1685C545D6D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="10200409" y="190500"/>
+          <a:ext cx="1011342" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -886,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,100 +938,108 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
